--- a/Experiments/240311_C13/biosyn_sp_240220.xlsx
+++ b/Experiments/240311_C13/biosyn_sp_240220.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/231121_gly_shunt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/240311_C13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5DDD38-C617-3C45-8C3D-75296463A63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D7AD8B-D9D0-C544-8744-CF25A644AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Item</t>
   </si>
@@ -130,9 +130,6 @@
     <t>PLP</t>
   </si>
   <si>
-    <t>O1</t>
-  </si>
-  <si>
     <t>Serine</t>
   </si>
   <si>
@@ -247,12 +244,6 @@
     <t>33.0,60.0</t>
   </si>
   <si>
-    <t>20.0,45.0,60</t>
-  </si>
-  <si>
-    <t>38.0,60.0</t>
-  </si>
-  <si>
     <t>34.0,60.0</t>
   </si>
   <si>
@@ -275,6 +266,21 @@
   </si>
   <si>
     <t>C6</t>
+  </si>
+  <si>
+    <t>succinate</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>60,60,60</t>
+  </si>
+  <si>
+    <t>60,60</t>
+  </si>
+  <si>
+    <t>O1,O2</t>
   </si>
 </sst>
 </file>
@@ -650,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="194" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,24 +744,24 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,20 +799,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>250</v>
       </c>
-      <c r="E9" t="s">
-        <v>76</v>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,7 +846,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -857,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -891,7 +897,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -912,48 +918,48 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3">
         <v>50</v>
       </c>
-      <c r="E16">
-        <v>38</v>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
       </c>
       <c r="D17">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -964,13 +970,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
       </c>
       <c r="D19">
         <v>25</v>
@@ -981,47 +987,47 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
       </c>
       <c r="D20">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
       </c>
       <c r="D21">
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -1032,13 +1038,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
       </c>
       <c r="D23">
         <v>50</v>
@@ -1049,30 +1055,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1083,13 +1089,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -1100,13 +1106,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1117,13 +1123,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -1134,13 +1140,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
       </c>
       <c r="D29">
         <v>500</v>
@@ -1151,13 +1157,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
       </c>
       <c r="D30">
         <v>1000</v>
@@ -1168,13 +1174,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -1184,31 +1190,31 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32">
-        <v>42.75</v>
+      <c r="E32" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
       </c>
       <c r="D33">
         <v>13</v>
@@ -1219,13 +1225,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -1236,13 +1242,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>100</v>
@@ -1252,7 +1258,21 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
